--- a/Codici/sbagliati.xlsx
+++ b/Codici/sbagliati.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP_i3-7200U\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP_i3-7200U\Documents\GitHub\primoprogetto\Codici\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2E4162-0BDE-4F0E-80D2-D6CCCA6A6E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7690DD-4B48-4684-AF40-411D107B1C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="1335" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -61,12 +61,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,11 +87,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -366,11 +374,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,6 +844,320 @@
         <v>405</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>427</v>
+      </c>
+      <c r="C46">
+        <v>1.7</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>438</v>
+      </c>
+      <c r="C47">
+        <v>1.7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>493</v>
+      </c>
+      <c r="C51">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>496</v>
+      </c>
+      <c r="C52">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>509</v>
+      </c>
+      <c r="C53">
+        <v>2.1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>510</v>
+      </c>
+      <c r="C54">
+        <v>2.1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>527</v>
+      </c>
+      <c r="C58">
+        <v>2.1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E58">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>542</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>567</v>
+      </c>
+      <c r="C60">
+        <v>1.9</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E60">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>568</v>
+      </c>
+      <c r="C61">
+        <v>1.9</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E61">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>599</v>
+      </c>
+      <c r="C62">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>603</v>
+      </c>
+      <c r="C63">
+        <v>1.4</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E63">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>749</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>805</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>815</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>817</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E70">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>819</v>
+      </c>
+      <c r="C71">
+        <v>2.7</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E71">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>896</v>
+      </c>
+      <c r="C72">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>898</v>
+      </c>
+      <c r="C73">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>900</v>
+      </c>
+      <c r="C74">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>919</v>
+      </c>
+      <c r="C75">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1031</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1047</v>
+      </c>
+      <c r="C77">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1052</v>
+      </c>
+      <c r="C78">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1056</v>
+      </c>
+      <c r="C79">
+        <v>0.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
